--- a/docs/DCB_Project_API_20191213.xlsx
+++ b/docs/DCB_Project_API_20191213.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seomark\seoDoc\GitHub\BDID\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69061FF8-AF74-4D0B-9A99-EBB78BC6D0D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19710" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="개요" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="사용자등록" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="로그인" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="홈" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="인증스토어" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="결과코드" sheetId="6" r:id="rId9"/>
+    <sheet name="개요" sheetId="1" r:id="rId1"/>
+    <sheet name="사용자등록" sheetId="2" r:id="rId2"/>
+    <sheet name="로그인" sheetId="3" r:id="rId3"/>
+    <sheet name="홈" sheetId="4" r:id="rId4"/>
+    <sheet name="인증스토어" sheetId="5" r:id="rId5"/>
+    <sheet name="결과코드" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mg+5kBXUxlL0PGmZC08Mq8/z1HhAg=="/>
@@ -21,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="192">
   <si>
     <t>이름</t>
   </si>
@@ -109,22 +118,22 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>": "</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>test</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>",</t>
     </r>
@@ -177,22 +186,22 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>": "</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>good</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>",</t>
     </r>
@@ -266,8 +275,8 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>nt</t>
     </r>
@@ -281,43 +290,49 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>서울시</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>서초구</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>서초대로</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>"</t>
     </r>
@@ -352,15 +367,15 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>/</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>didinfo</t>
     </r>
@@ -371,29 +386,33 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>id</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>인증</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>목록</t>
     </r>
@@ -407,29 +426,33 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>id</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>인증</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>상세</t>
     </r>
@@ -446,15 +469,15 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>result</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>":200</t>
     </r>
@@ -465,22 +488,22 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>_</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>count</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>":"",</t>
     </r>
@@ -494,36 +517,42 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>인증</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>받은</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> did</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>수</t>
     </r>
@@ -537,8 +566,8 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>"</t>
     </r>
@@ -549,15 +578,15 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>did</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>_idx":"",</t>
     </r>
@@ -571,36 +600,42 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>인증</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>목록</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>번호</t>
     </r>
@@ -617,15 +652,15 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>did</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>_name":"",</t>
     </r>
@@ -651,8 +686,8 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>": "",</t>
     </r>
@@ -666,15 +701,15 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>result</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>":200</t>
     </r>
@@ -688,22 +723,22 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> : new</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Block</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Account,</t>
     </r>
@@ -720,15 +755,15 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>"</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> : balance,</t>
     </r>
@@ -742,8 +777,8 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>nt</t>
     </r>
@@ -754,15 +789,15 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>"</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> : now</t>
     </r>
@@ -785,8 +820,8 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>": "",</t>
     </r>
@@ -800,36 +835,42 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>보내는</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>사람</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>주소</t>
     </r>
@@ -849,36 +890,42 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>사용자</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>정보</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>일람</t>
     </r>
@@ -894,615 +941,659 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보낼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코인</t>
+    </r>
+  </si>
+  <si>
+    <t>"address":""</t>
+  </si>
+  <si>
+    <t>집주소</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>":200</t>
+    </r>
+  </si>
+  <si>
+    <t>"info": {</t>
+  </si>
+  <si>
+    <r>
+      <t>"message" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성공적으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>송금이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>됐습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>...!!!"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>holder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>_name":"",</t>
+    </r>
+  </si>
+  <si>
+    <t>사용자</t>
+  </si>
+  <si>
+    <t>"expected_time":"",</t>
+  </si>
+  <si>
+    <t>전자지갑리스트</t>
+  </si>
+  <si>
+    <t>/user/blockAccountList</t>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>ET</t>
+    </r>
+  </si>
+  <si>
+    <t>},</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>ID인증 상세</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"BlockAccountAddress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>": "",</t>
+    </r>
+  </si>
+  <si>
+    <t>"username":""</t>
+  </si>
+  <si>
+    <t>"BlockAccountPassword":"",</t>
+  </si>
+  <si>
+    <t>전자지갑비밀번호</t>
+  </si>
+  <si>
+    <t>"date":"2017-08"</t>
+  </si>
+  <si>
+    <t>년-월</t>
+  </si>
+  <si>
+    <t>없으면 현재날짜</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>":200</t>
+    </r>
+  </si>
+  <si>
+    <t>"message" : "BlockAccountNumber",</t>
+  </si>
+  <si>
+    <r>
+      <t>"account"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>BlockAccountNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"balance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> : balance,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+  </si>
+  <si>
+    <t>"list": [</t>
+  </si>
+  <si>
+    <r>
+      <t>"createAt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> : now</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인증</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목록</t>
+    </r>
+  </si>
+  <si>
+    <t>"idx":"",</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인증목록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번호</t>
+    </r>
+  </si>
+  <si>
+    <t>"date": "",</t>
+  </si>
+  <si>
+    <t>발급날짜</t>
+  </si>
+  <si>
+    <t>"issuer_name": "",</t>
+  </si>
+  <si>
+    <t>인증기관명</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경찰서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대학교명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특정단체</t>
+    </r>
+  </si>
+  <si>
+    <t>"did_contents": "",</t>
+  </si>
+  <si>
+    <t>],</t>
+  </si>
+  <si>
+    <t>"total":1</t>
+  </si>
+  <si>
+    <t>리스트 총 갯수</t>
+  </si>
+  <si>
+    <t>DID인증 정보 목록</t>
+  </si>
+  <si>
+    <t>목록번호</t>
+  </si>
+  <si>
+    <t>"didinfo": "",</t>
+  </si>
+  <si>
+    <r>
+      <t>DID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인증</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청목록</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>did_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>store/list</t>
+    </r>
+  </si>
+  <si>
+    <t>sring</t>
+  </si>
+  <si>
+    <t>DID정보 삭제</t>
+  </si>
+  <si>
+    <t>코드</t>
+  </si>
+  <si>
+    <t>상태</t>
+  </si>
+  <si>
+    <t>성공</t>
+  </si>
+  <si>
+    <t>로그인 세션만료</t>
+  </si>
+  <si>
+    <t>권한없음</t>
+  </si>
+  <si>
+    <t>데이터 없음</t>
+  </si>
+  <si>
+    <t>에러 (메시지 참조)</t>
+  </si>
+  <si>
+    <t>"idx":0</t>
+  </si>
+  <si>
+    <t>목록</t>
+  </si>
+  <si>
+    <t>"adult": "",</t>
+  </si>
+  <si>
+    <t>성인</t>
+  </si>
+  <si>
+    <t>"gruduated":"",</t>
+  </si>
+  <si>
+    <t>졸업</t>
+  </si>
+  <si>
+    <t>"gender":"",</t>
+  </si>
+  <si>
+    <t>"age":""</t>
+  </si>
+  <si>
+    <t>나이</t>
+  </si>
+  <si>
+    <r>
       <t>/home/</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Users/didinfo</t>
     </r>
-  </si>
-  <si>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/home/</t>
+    </r>
     <r>
       <rPr>
-        <rFont val="돋움"/>
-        <sz val="10.0"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
-      <t>보낼</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="돋움"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>코인</t>
-    </r>
-  </si>
-  <si>
-    <t>"address":""</t>
-  </si>
-  <si>
-    <t>집주소</t>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>result</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>":200</t>
-    </r>
-  </si>
-  <si>
-    <t>"info": {</t>
-  </si>
-  <si>
-    <r>
-      <t>"message" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="돋움"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>성공적으로</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="돋움"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>송금이</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="돋움"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>완료</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="돋움"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>됐습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>...!!!"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>holder</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>_name":"",</t>
-    </r>
-  </si>
-  <si>
-    <t>사용자</t>
-  </si>
-  <si>
-    <t>"expected_time":"",</t>
-  </si>
-  <si>
-    <t>전자지갑리스트</t>
-  </si>
-  <si>
-    <t>/user/blockAccountList</t>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>ET</t>
-    </r>
-  </si>
-  <si>
-    <t>},</t>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-      </rPr>
-      <t>ID인증 상세</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>/home/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-      </rPr>
-      <t>user/didlist_info</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"BlockAccountAddress</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>": "",</t>
-    </r>
-  </si>
-  <si>
-    <t>"username":""</t>
-  </si>
-  <si>
-    <t>"BlockAccountPassword":"",</t>
-  </si>
-  <si>
-    <t>전자지갑비밀번호</t>
-  </si>
-  <si>
-    <t>"date":"2017-08"</t>
-  </si>
-  <si>
-    <t>년-월</t>
-  </si>
-  <si>
-    <t>없으면 현재날짜</t>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>result</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>":200</t>
-    </r>
-  </si>
-  <si>
-    <t>"message" : "BlockAccountNumber",</t>
-  </si>
-  <si>
-    <r>
-      <t>"account"</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>BlockAccountNumber</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"balance</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> : balance,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>nt</t>
-    </r>
-  </si>
-  <si>
-    <t>"list": [</t>
-  </si>
-  <si>
-    <r>
-      <t>"createAt</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> : now</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="돋움"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>인증</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="돋움"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>목록</t>
-    </r>
-  </si>
-  <si>
-    <t>"idx":"",</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="돋움"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>인증목록</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="돋움"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>번호</t>
-    </r>
-  </si>
-  <si>
-    <t>"date": "",</t>
-  </si>
-  <si>
-    <t>"title":"",</t>
-  </si>
-  <si>
-    <t>발급날짜</t>
-  </si>
-  <si>
-    <t>제목</t>
-  </si>
-  <si>
-    <t>"contents":""</t>
-  </si>
-  <si>
-    <t>내용</t>
-  </si>
-  <si>
-    <t>"issuer_name": "",</t>
-  </si>
-  <si>
-    <t>인증기관명</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="돋움"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>경찰서</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="돋움"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>대학교명</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="돋움"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>특정단체</t>
-    </r>
-  </si>
-  <si>
-    <t>"did_contents": "",</t>
-  </si>
-  <si>
-    <t>],</t>
-  </si>
-  <si>
-    <t>"total":1</t>
-  </si>
-  <si>
-    <t>리스트 총 갯수</t>
-  </si>
-  <si>
-    <t>DID인증 정보 목록</t>
-  </si>
-  <si>
-    <t>목록번호</t>
-  </si>
-  <si>
-    <t>"didinfo": "",</t>
-  </si>
-  <si>
-    <r>
-      <t>DID</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="돋움"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>인증</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="돋움"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>요청목록</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>did_</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>store/list</t>
-    </r>
-  </si>
-  <si>
-    <t>sring</t>
-  </si>
-  <si>
-    <t>DID정보 삭제</t>
-  </si>
-  <si>
-    <t>코드</t>
-  </si>
-  <si>
-    <t>상태</t>
-  </si>
-  <si>
-    <t>성공</t>
-  </si>
-  <si>
-    <t>로그인 세션만료</t>
-  </si>
-  <si>
-    <t>권한없음</t>
-  </si>
-  <si>
-    <t>데이터 없음</t>
-  </si>
-  <si>
-    <t>에러 (메시지 참조)</t>
-  </si>
-  <si>
-    <t>"idx":0</t>
-  </si>
-  <si>
-    <t>목록</t>
-  </si>
-  <si>
-    <t>"adult": "",</t>
-  </si>
-  <si>
-    <t>성인</t>
-  </si>
-  <si>
-    <t>"gruduated":"",</t>
-  </si>
-  <si>
-    <t>졸업</t>
-  </si>
-  <si>
-    <t>"gender":"",</t>
-  </si>
-  <si>
-    <t>"age":""</t>
-  </si>
-  <si>
-    <t>나이</t>
+      <t>user/didlistinfo</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Dotum"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <strike/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Consolas"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1510,7 +1601,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1538,7 +1629,13 @@
     </fill>
   </fills>
   <borders count="16">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1552,19 +1649,27 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1576,70 +1681,26 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1650,6 +1711,80 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1658,116 +1793,87 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1957,28 +2063,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="14.43"/>
-    <col customWidth="1" min="4" max="4" width="22.14"/>
-    <col customWidth="1" min="5" max="6" width="14.43"/>
+    <col min="1" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="15.75" customHeight="1"/>
-    <row r="3" ht="15.75" customHeight="1"/>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="1" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="2" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="3" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="4" spans="2:8" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1989,7 +2095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="2:8" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2000,7 +2106,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="2:8" ht="15.75" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
@@ -2011,7 +2117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="2:8" ht="15.75" customHeight="1">
       <c r="B7" s="2"/>
       <c r="C7" s="5" t="s">
         <v>25</v>
@@ -2020,21 +2126,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="2:8" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="2:8" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="2:8" ht="15.75" customHeight="1">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="2:8" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
@@ -2048,7 +2154,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="2:8" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -2056,22 +2162,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="2:8" ht="15.75" customHeight="1">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="2:8" ht="15.75" customHeight="1">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="2:8" ht="15.75" customHeight="1">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="2:8" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="B17" s="14" t="s">
         <v>38</v>
       </c>
@@ -2085,9 +2191,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>2</v>
@@ -2100,9 +2206,9 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
@@ -2113,9 +2219,9 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
@@ -2126,9 +2232,9 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
@@ -2139,9 +2245,9 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
@@ -2152,9 +2258,9 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>72</v>
@@ -2167,9 +2273,9 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
@@ -2180,9 +2286,9 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
@@ -2193,9 +2299,9 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="22" t="s">
@@ -2206,169 +2312,169 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="A39" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -3322,41 +3428,38 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C4"/>
-    <hyperlink r:id="rId2" ref="C5"/>
-    <hyperlink r:id="rId3" ref="C6"/>
-    <hyperlink r:id="rId4" ref="C7"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A64" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="31.43"/>
-    <col customWidth="1" min="3" max="3" width="17.57"/>
-    <col customWidth="1" min="4" max="4" width="8.71"/>
-    <col customWidth="1" min="5" max="5" width="16.57"/>
-    <col customWidth="1" min="6" max="6" width="25.43"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1"/>
-    <row r="2" ht="12.75" customHeight="1"/>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="1" spans="2:7" ht="12.75" customHeight="1"/>
+    <row r="2" spans="2:7" ht="12.75" customHeight="1"/>
+    <row r="3" spans="2:7" ht="12.75" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3364,7 +3467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="2:7" ht="12.75" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3372,7 +3475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="2:7" ht="12.75" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3380,7 +3483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="2:7" ht="12.75" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3390,7 +3493,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="2:7" ht="12.75" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
@@ -3410,7 +3513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="2:7" ht="12.75" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
@@ -3420,7 +3523,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="2:7" ht="12.75" customHeight="1">
       <c r="B9" s="12" t="s">
         <v>27</v>
       </c>
@@ -3435,7 +3538,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="2:7" ht="12.75" customHeight="1">
       <c r="B10" s="12" t="s">
         <v>42</v>
       </c>
@@ -3449,7 +3552,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="2:7" ht="12.75" customHeight="1">
       <c r="B11" s="12" t="s">
         <v>47</v>
       </c>
@@ -3463,7 +3566,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="2:7" ht="12.75" customHeight="1">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -3477,7 +3580,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="2:7" ht="12.75" customHeight="1">
       <c r="B13" s="12" t="s">
         <v>66</v>
       </c>
@@ -3491,13 +3594,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="2:7" ht="12.75" customHeight="1">
       <c r="B14" s="12"/>
       <c r="E14" s="15"/>
       <c r="F14" s="13"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="2:7" ht="12.75" customHeight="1">
       <c r="B15" s="16" t="s">
         <v>63</v>
       </c>
@@ -3507,7 +3610,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="2:7" ht="12.75" customHeight="1">
       <c r="B16" s="1" t="s">
         <v>74</v>
       </c>
@@ -3517,7 +3620,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="2:7" ht="12.75" customHeight="1">
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
@@ -3537,7 +3640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="2:7" ht="12.75" customHeight="1">
       <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
@@ -3547,7 +3650,7 @@
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="2:7" ht="12.75" customHeight="1">
       <c r="B19" s="12" t="s">
         <v>81</v>
       </c>
@@ -3562,7 +3665,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="2:7" ht="12.75" customHeight="1">
       <c r="B20" s="12" t="s">
         <v>87</v>
       </c>
@@ -3577,7 +3680,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="2:7" ht="12.75" customHeight="1">
       <c r="B21" s="12" t="s">
         <v>90</v>
       </c>
@@ -3592,7 +3695,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="2:7" ht="12.75" customHeight="1">
       <c r="B22" s="16" t="s">
         <v>63</v>
       </c>
@@ -3602,9 +3705,9 @@
       <c r="F22" s="24"/>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1"/>
-    <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="23" spans="2:7" ht="12.75" customHeight="1"/>
+    <row r="24" spans="2:7" ht="12.75" customHeight="1"/>
+    <row r="25" spans="2:7" ht="12.75" customHeight="1">
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
@@ -3612,7 +3715,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" spans="2:7" ht="12.75" customHeight="1">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -3620,7 +3723,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="2:7" ht="12.75" customHeight="1">
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
@@ -3628,7 +3731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" spans="2:7" ht="12.75" customHeight="1">
       <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
@@ -3638,7 +3741,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" spans="2:7" ht="12.75" customHeight="1">
       <c r="B29" s="6" t="s">
         <v>10</v>
       </c>
@@ -3658,7 +3761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="2:7" ht="12.75" customHeight="1">
       <c r="B30" s="7" t="s">
         <v>20</v>
       </c>
@@ -3668,7 +3771,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" spans="2:7" ht="12.75" customHeight="1">
       <c r="B31" s="12" t="s">
         <v>100</v>
       </c>
@@ -3683,7 +3786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="2:7" ht="12.75" customHeight="1">
       <c r="B32" s="12" t="s">
         <v>101</v>
       </c>
@@ -3697,7 +3800,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="2:7" ht="12.75" customHeight="1">
       <c r="B33" s="16" t="s">
         <v>63</v>
       </c>
@@ -3707,7 +3810,7 @@
       <c r="F33" s="18"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" spans="2:7" ht="12.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>74</v>
       </c>
@@ -3717,7 +3820,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" spans="2:7" ht="12.75" customHeight="1">
       <c r="B35" s="6" t="s">
         <v>10</v>
       </c>
@@ -3737,7 +3840,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" spans="2:7" ht="12.75" customHeight="1">
       <c r="B36" s="7" t="s">
         <v>20</v>
       </c>
@@ -3747,7 +3850,7 @@
       <c r="F36" s="20"/>
       <c r="G36" s="21"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="2:7" ht="12.75" customHeight="1">
       <c r="B37" s="12" t="s">
         <v>102</v>
       </c>
@@ -3762,7 +3865,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" spans="2:7" ht="12.75" customHeight="1">
       <c r="B38" s="12" t="s">
         <v>103</v>
       </c>
@@ -3777,7 +3880,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="2:7" ht="12.75" customHeight="1">
       <c r="B39" s="12" t="s">
         <v>104</v>
       </c>
@@ -3792,7 +3895,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" spans="2:7" ht="12.75" customHeight="1">
       <c r="B40" s="12" t="s">
         <v>107</v>
       </c>
@@ -3807,7 +3910,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" spans="2:7" ht="12.75" customHeight="1">
       <c r="B41" s="12" t="s">
         <v>110</v>
       </c>
@@ -3822,7 +3925,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="2:7" ht="12.75" customHeight="1">
       <c r="B42" s="16" t="s">
         <v>63</v>
       </c>
@@ -3832,9 +3935,9 @@
       <c r="F42" s="24"/>
       <c r="G42" s="25"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="43" spans="2:7" ht="12.75" customHeight="1"/>
+    <row r="44" spans="2:7" ht="12.75" customHeight="1"/>
+    <row r="45" spans="2:7" ht="12.75" customHeight="1">
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
@@ -3842,7 +3945,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" spans="2:7" ht="12.75" customHeight="1">
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
@@ -3850,7 +3953,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" spans="2:7" ht="12.75" customHeight="1">
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
@@ -3858,7 +3961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" spans="2:7" ht="12.75" customHeight="1">
       <c r="B48" s="1" t="s">
         <v>9</v>
       </c>
@@ -3868,7 +3971,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" spans="2:7" ht="12.75" customHeight="1">
       <c r="B49" s="6" t="s">
         <v>10</v>
       </c>
@@ -3888,7 +3991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" spans="2:7" ht="12.75" customHeight="1">
       <c r="B50" s="7" t="s">
         <v>20</v>
       </c>
@@ -3898,7 +4001,7 @@
       <c r="F50" s="9"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" spans="2:7" ht="12.75" customHeight="1">
       <c r="B51" s="12" t="s">
         <v>115</v>
       </c>
@@ -3913,7 +4016,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" spans="2:7" ht="12.75" customHeight="1">
       <c r="B52" s="12" t="s">
         <v>120</v>
       </c>
@@ -3927,7 +4030,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" spans="2:7" ht="12.75" customHeight="1">
       <c r="B53" s="12" t="s">
         <v>101</v>
       </c>
@@ -3941,12 +4044,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" spans="2:7" ht="12.75" customHeight="1">
       <c r="B54" s="12" t="s">
         <v>126</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>84</v>
@@ -3955,7 +4058,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" spans="2:7" ht="12.75" customHeight="1">
       <c r="B55" s="16" t="s">
         <v>63</v>
       </c>
@@ -3965,7 +4068,7 @@
       <c r="F55" s="18"/>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" spans="2:7" ht="12.75" customHeight="1">
       <c r="B56" s="1" t="s">
         <v>74</v>
       </c>
@@ -3975,7 +4078,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" spans="2:7" ht="12.75" customHeight="1">
       <c r="B57" s="6" t="s">
         <v>10</v>
       </c>
@@ -3995,7 +4098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" spans="2:7" ht="12.75" customHeight="1">
       <c r="B58" s="7" t="s">
         <v>20</v>
       </c>
@@ -4005,9 +4108,9 @@
       <c r="F58" s="20"/>
       <c r="G58" s="21"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" spans="2:7" ht="12.75" customHeight="1">
       <c r="B59" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C59" s="2"/>
       <c r="E59" s="13" t="s">
@@ -4020,9 +4123,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" spans="2:7" ht="12.75" customHeight="1">
       <c r="B60" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C60" s="2"/>
       <c r="E60" s="13" t="s">
@@ -4035,7 +4138,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" spans="2:7" ht="12.75" customHeight="1">
       <c r="B61" s="16" t="s">
         <v>63</v>
       </c>
@@ -4045,33 +4148,33 @@
       <c r="F61" s="24"/>
       <c r="G61" s="25"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="62" spans="2:7" ht="12.75" customHeight="1"/>
+    <row r="63" spans="2:7" ht="12.75" customHeight="1"/>
+    <row r="64" spans="2:7" ht="12.75" customHeight="1">
       <c r="B64" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" ht="12.75" customHeight="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="12.75" customHeight="1">
       <c r="B65" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" ht="12.75" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="12.75" customHeight="1">
       <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" ht="12.75" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="12.75" customHeight="1">
       <c r="B67" s="1" t="s">
         <v>9</v>
       </c>
@@ -4081,7 +4184,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" spans="2:7" ht="12.75" customHeight="1">
       <c r="B68" s="6" t="s">
         <v>10</v>
       </c>
@@ -4101,7 +4204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" spans="2:7" ht="12.75" customHeight="1">
       <c r="B69" s="7" t="s">
         <v>20</v>
       </c>
@@ -4111,9 +4214,9 @@
       <c r="F69" s="9"/>
       <c r="G69" s="11"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" spans="2:7" ht="12.75" customHeight="1">
       <c r="B70" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C70" s="2"/>
       <c r="E70" s="15" t="s">
@@ -4126,12 +4229,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" spans="2:7" ht="12.75" customHeight="1">
       <c r="B71" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F71" s="13" t="s">
         <v>36</v>
@@ -4140,7 +4243,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" spans="2:7" ht="12.75" customHeight="1">
       <c r="B72" s="16" t="s">
         <v>63</v>
       </c>
@@ -4150,7 +4253,7 @@
       <c r="F72" s="18"/>
       <c r="G72" s="11"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" spans="2:7" ht="12.75" customHeight="1">
       <c r="B73" s="1" t="s">
         <v>74</v>
       </c>
@@ -4160,7 +4263,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" spans="2:7" ht="12.75" customHeight="1">
       <c r="B74" s="6" t="s">
         <v>10</v>
       </c>
@@ -4180,7 +4283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" spans="2:7" ht="12.75" customHeight="1">
       <c r="B75" s="7" t="s">
         <v>20</v>
       </c>
@@ -4190,9 +4293,9 @@
       <c r="F75" s="20"/>
       <c r="G75" s="21"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" spans="2:7" ht="12.75" customHeight="1">
       <c r="B76" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C76" s="2"/>
       <c r="E76" s="13" t="s">
@@ -4205,9 +4308,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" spans="2:7" ht="12.75" customHeight="1">
       <c r="B77" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C77" s="2"/>
       <c r="E77" s="13" t="s">
@@ -4220,9 +4323,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" spans="2:7" ht="12.75" customHeight="1">
       <c r="B78" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C78" s="2"/>
       <c r="E78" s="15" t="s">
@@ -4235,24 +4338,24 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" spans="2:7" ht="12.75" customHeight="1">
       <c r="B79" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C79" s="2"/>
       <c r="E79" s="15" t="s">
         <v>108</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
+    <row r="80" spans="2:7" ht="12.75" customHeight="1">
       <c r="B80" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C80" s="2"/>
       <c r="E80" s="15" t="s">
@@ -4265,7 +4368,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
+    <row r="81" spans="2:7" ht="12.75" customHeight="1">
       <c r="B81" s="16" t="s">
         <v>63</v>
       </c>
@@ -4275,21 +4378,21 @@
       <c r="F81" s="24"/>
       <c r="G81" s="25"/>
     </row>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="82" spans="2:7" ht="12.75" customHeight="1"/>
+    <row r="83" spans="2:7" ht="12.75" customHeight="1"/>
+    <row r="84" spans="2:7" ht="12.75" customHeight="1"/>
+    <row r="85" spans="2:7" ht="12.75" customHeight="1"/>
+    <row r="86" spans="2:7" ht="12.75" customHeight="1"/>
+    <row r="87" spans="2:7" ht="12.75" customHeight="1"/>
+    <row r="88" spans="2:7" ht="12.75" customHeight="1"/>
+    <row r="89" spans="2:7" ht="12.75" customHeight="1"/>
+    <row r="90" spans="2:7" ht="12.75" customHeight="1"/>
+    <row r="91" spans="2:7" ht="12.75" customHeight="1"/>
+    <row r="92" spans="2:7" ht="12.75" customHeight="1"/>
+    <row r="93" spans="2:7" ht="12.75" customHeight="1"/>
+    <row r="94" spans="2:7" ht="12.75" customHeight="1"/>
+    <row r="95" spans="2:7" ht="12.75" customHeight="1"/>
+    <row r="96" spans="2:7" ht="12.75" customHeight="1"/>
     <row r="97" ht="12.75" customHeight="1"/>
     <row r="98" ht="12.75" customHeight="1"/>
     <row r="99" ht="12.75" customHeight="1"/>
@@ -5195,36 +5298,35 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F985"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:XFD104"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.29"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="3" max="3" width="14.43"/>
-    <col customWidth="1" min="4" max="4" width="15.14"/>
-    <col customWidth="1" min="5" max="6" width="14.43"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="15.75" customHeight="1"/>
-    <row r="3" ht="15.75" customHeight="1"/>
-    <row r="4" ht="15.75" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -5232,7 +5334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -5240,7 +5342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -5248,7 +5350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -5258,7 +5360,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -5278,7 +5380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
@@ -5288,7 +5390,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>26</v>
       </c>
@@ -5303,7 +5405,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>39</v>
       </c>
@@ -5317,7 +5419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="12" t="s">
         <v>43</v>
       </c>
@@ -5331,7 +5433,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>46</v>
       </c>
@@ -5345,7 +5447,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>53</v>
       </c>
@@ -5359,7 +5461,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>55</v>
       </c>
@@ -5371,7 +5473,7 @@
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>57</v>
       </c>
@@ -5383,7 +5485,7 @@
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>63</v>
       </c>
@@ -5393,7 +5495,7 @@
       <c r="E19" s="18"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -5403,7 +5505,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
@@ -5423,7 +5525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
@@ -5433,7 +5535,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>82</v>
       </c>
@@ -5446,7 +5548,7 @@
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="12" t="s">
         <v>88</v>
       </c>
@@ -5459,7 +5561,7 @@
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="12" t="s">
         <v>94</v>
       </c>
@@ -5472,7 +5574,7 @@
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="12" t="s">
         <v>96</v>
       </c>
@@ -5487,7 +5589,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="12" t="s">
         <v>97</v>
       </c>
@@ -5502,7 +5604,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="16" t="s">
         <v>63</v>
       </c>
@@ -5512,11 +5614,11 @@
       <c r="E28" s="24"/>
       <c r="F28" s="25"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -5524,7 +5626,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -5532,7 +5634,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -5540,7 +5642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -5550,7 +5652,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>10</v>
       </c>
@@ -5570,7 +5672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>20</v>
       </c>
@@ -5578,7 +5680,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="16" t="s">
         <v>63</v>
       </c>
@@ -5588,7 +5690,7 @@
       <c r="E37" s="18"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -5598,7 +5700,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>10</v>
       </c>
@@ -5618,7 +5720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="7" t="s">
         <v>20</v>
       </c>
@@ -5628,7 +5730,7 @@
       <c r="E40" s="20"/>
       <c r="F40" s="21"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="12" t="s">
         <v>96</v>
       </c>
@@ -5643,7 +5745,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="12" t="s">
         <v>97</v>
       </c>
@@ -5658,7 +5760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="16" t="s">
         <v>63</v>
       </c>
@@ -5668,9 +5770,9 @@
       <c r="E43" s="24"/>
       <c r="F43" s="25"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -5678,7 +5780,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -5686,7 +5788,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -5694,7 +5796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
@@ -5704,7 +5806,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:6" ht="15.75" customHeight="1">
       <c r="A50" s="6" t="s">
         <v>10</v>
       </c>
@@ -5724,7 +5826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:6" ht="15.75" customHeight="1">
       <c r="A51" s="7" t="s">
         <v>20</v>
       </c>
@@ -5734,7 +5836,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="11"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
       <c r="A52" s="12" t="s">
         <v>26</v>
       </c>
@@ -5749,7 +5851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="12" t="s">
         <v>39</v>
       </c>
@@ -5763,7 +5865,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
       <c r="A54" s="12" t="s">
         <v>43</v>
       </c>
@@ -5777,7 +5879,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="A55" s="12" t="s">
         <v>46</v>
       </c>
@@ -5791,7 +5893,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1">
       <c r="A56" s="12" t="s">
         <v>53</v>
       </c>
@@ -5805,7 +5907,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1">
       <c r="A57" s="12" t="s">
         <v>55</v>
       </c>
@@ -5817,7 +5919,7 @@
       </c>
       <c r="F57" s="11"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:6" ht="15.75" customHeight="1">
       <c r="A58" s="12" t="s">
         <v>57</v>
       </c>
@@ -5829,7 +5931,7 @@
       </c>
       <c r="F58" s="11"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:6" ht="15.75" customHeight="1">
       <c r="A59" s="12" t="s">
         <v>114</v>
       </c>
@@ -5843,7 +5945,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="12" t="s">
         <v>116</v>
       </c>
@@ -5857,7 +5959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:6" ht="15.75" customHeight="1">
       <c r="A61" s="12" t="s">
         <v>119</v>
       </c>
@@ -5865,11 +5967,11 @@
         <v>121</v>
       </c>
       <c r="E61" s="13">
-        <v>1.012345678E9</v>
+        <v>1012345678</v>
       </c>
       <c r="F61" s="11"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:6" ht="15.75" customHeight="1">
       <c r="A62" s="12" t="s">
         <v>124</v>
       </c>
@@ -5877,23 +5979,23 @@
         <v>125</v>
       </c>
       <c r="E62" s="27">
-        <v>42992.0</v>
+        <v>42992</v>
       </c>
       <c r="F62" s="11"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1">
       <c r="A63" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>36</v>
       </c>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:6" ht="15.75" customHeight="1">
       <c r="A64" s="28"/>
       <c r="B64" s="29"/>
       <c r="C64" s="29"/>
@@ -5901,7 +6003,7 @@
       <c r="E64" s="30"/>
       <c r="F64" s="31"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1">
       <c r="A65" s="16" t="s">
         <v>63</v>
       </c>
@@ -5911,7 +6013,7 @@
       <c r="E65" s="18"/>
       <c r="F65" s="11"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
@@ -5921,7 +6023,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:6" ht="15.75" customHeight="1">
       <c r="A67" s="6" t="s">
         <v>10</v>
       </c>
@@ -5941,7 +6043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:6" ht="15.75" customHeight="1">
       <c r="A68" s="7" t="s">
         <v>20</v>
       </c>
@@ -5951,7 +6053,7 @@
       <c r="E68" s="20"/>
       <c r="F68" s="21"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:6" ht="15.75" customHeight="1">
       <c r="A69" s="12" t="s">
         <v>96</v>
       </c>
@@ -5966,7 +6068,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1">
       <c r="A70" s="12" t="s">
         <v>97</v>
       </c>
@@ -5981,7 +6083,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1">
       <c r="A71" s="16" t="s">
         <v>63</v>
       </c>
@@ -5991,9 +6093,9 @@
       <c r="E71" s="24"/>
       <c r="F71" s="25"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="72" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -6001,7 +6103,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:6" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -6009,7 +6111,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:6" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -6017,7 +6119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:6" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
@@ -6027,7 +6129,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:6" ht="15.75" customHeight="1">
       <c r="A78" s="6" t="s">
         <v>10</v>
       </c>
@@ -6047,7 +6149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:6" ht="15.75" customHeight="1">
       <c r="A79" s="12" t="s">
         <v>20</v>
       </c>
@@ -6055,9 +6157,9 @@
       <c r="E79" s="13"/>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:6" ht="15.75" customHeight="1">
       <c r="A80" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D80" s="13" t="s">
         <v>30</v>
@@ -6069,7 +6171,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:6" ht="15.75" customHeight="1">
       <c r="A81" s="16" t="s">
         <v>63</v>
       </c>
@@ -6079,7 +6181,7 @@
       <c r="E81" s="18"/>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:6" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>74</v>
       </c>
@@ -6089,7 +6191,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:6" ht="15.75" customHeight="1">
       <c r="A83" s="6" t="s">
         <v>10</v>
       </c>
@@ -6109,7 +6211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:6" ht="15.75" customHeight="1">
       <c r="A84" s="7" t="s">
         <v>20</v>
       </c>
@@ -6119,7 +6221,7 @@
       <c r="E84" s="20"/>
       <c r="F84" s="21"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:6" ht="15.75" customHeight="1">
       <c r="A85" s="12" t="s">
         <v>96</v>
       </c>
@@ -6134,7 +6236,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:6" ht="15.75" customHeight="1">
       <c r="A86" s="12" t="s">
         <v>97</v>
       </c>
@@ -6149,7 +6251,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:6" ht="15.75" customHeight="1">
       <c r="A87" s="16" t="s">
         <v>63</v>
       </c>
@@ -6159,190 +6261,23 @@
       <c r="E87" s="24"/>
       <c r="F87" s="25"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="10"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F96" s="10"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F97" s="10"/>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="10"/>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="21"/>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="D102" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F102" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="D103" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E103" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F103" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="25"/>
-    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
     <row r="105" ht="15.75" customHeight="1"/>
     <row r="106" ht="15.75" customHeight="1"/>
     <row r="107" ht="15.75" customHeight="1"/>
@@ -7224,49 +7159,33 @@
     <row r="983" ht="15.75" customHeight="1"/>
     <row r="984" ht="15.75" customHeight="1"/>
     <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F909"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.43"/>
-    <col customWidth="1" min="2" max="2" width="19.0"/>
-    <col customWidth="1" min="3" max="4" width="14.43"/>
-    <col customWidth="1" min="5" max="5" width="20.0"/>
-    <col customWidth="1" min="6" max="6" width="14.43"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="15.75" customHeight="1"/>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7274,15 +7193,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+      <c r="B4" s="44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -7290,7 +7209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -7300,7 +7219,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -7320,7 +7239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -7330,7 +7249,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>63</v>
       </c>
@@ -7340,7 +7259,7 @@
       <c r="E9" s="18"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -7350,7 +7269,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -7370,7 +7289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -7380,59 +7299,59 @@
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" s="2"/>
       <c r="D13" s="13"/>
       <c r="E13" s="11"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>134</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>135</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="11"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="2"/>
       <c r="D16" s="13"/>
       <c r="E16" s="11"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="2"/>
       <c r="D17" s="13"/>
       <c r="E17" s="11"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="2"/>
       <c r="D18" s="13"/>
       <c r="E18" s="11"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>96</v>
       </c>
@@ -7447,7 +7366,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>97</v>
       </c>
@@ -7462,7 +7381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="16" t="s">
         <v>63</v>
       </c>
@@ -7472,25 +7391,25 @@
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+      <c r="B25" s="44" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -7498,7 +7417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -7508,7 +7427,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>10</v>
       </c>
@@ -7528,7 +7447,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="s">
         <v>20</v>
       </c>
@@ -7538,21 +7457,21 @@
       <c r="E29" s="9"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="33">
+        <v>42948</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" s="33">
-        <v>42948.0</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="16" t="s">
         <v>63</v>
       </c>
@@ -7562,7 +7481,7 @@
       <c r="E31" s="18"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
@@ -7572,7 +7491,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>10</v>
       </c>
@@ -7592,7 +7511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>20</v>
       </c>
@@ -7602,18 +7521,18 @@
       <c r="E34" s="20"/>
       <c r="F34" s="21"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B35" s="2"/>
       <c r="D35" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="2" t="s">
         <v>20</v>
@@ -7622,13 +7541,13 @@
       <c r="E36" s="11"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>84</v>
@@ -7637,38 +7556,38 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="12"/>
       <c r="B38" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E38" s="34">
-        <v>42992.0</v>
+        <v>42992</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="12"/>
       <c r="B39" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="12"/>
       <c r="B40" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>95</v>
@@ -7678,7 +7597,7 @@
       </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="12"/>
       <c r="B41" s="2" t="s">
         <v>63</v>
@@ -7687,26 +7606,26 @@
       <c r="E41" s="11"/>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="35" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B43" s="2"/>
       <c r="D43" s="13" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>96</v>
       </c>
@@ -7721,7 +7640,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="12" t="s">
         <v>97</v>
       </c>
@@ -7736,7 +7655,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="16" t="s">
         <v>63</v>
       </c>
@@ -7746,18 +7665,18 @@
       <c r="E46" s="24"/>
       <c r="F46" s="25"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -7765,7 +7684,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -7773,7 +7692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
@@ -7783,7 +7702,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>10</v>
       </c>
@@ -7803,7 +7722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="A55" s="7" t="s">
         <v>20</v>
       </c>
@@ -7813,7 +7732,7 @@
       <c r="E55" s="9"/>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1">
       <c r="A56" s="16" t="s">
         <v>63</v>
       </c>
@@ -7823,7 +7742,7 @@
       <c r="E56" s="18"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>74</v>
       </c>
@@ -7833,7 +7752,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:6" ht="15.75" customHeight="1">
       <c r="A58" s="6" t="s">
         <v>10</v>
       </c>
@@ -7853,7 +7772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:6" ht="15.75" customHeight="1">
       <c r="A59" s="7" t="s">
         <v>20</v>
       </c>
@@ -7863,16 +7782,16 @@
       <c r="E59" s="20"/>
       <c r="F59" s="21"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B60" s="2"/>
       <c r="D60" s="13"/>
       <c r="E60" s="11"/>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:6" ht="15.75" customHeight="1">
       <c r="A61" s="12"/>
       <c r="B61" s="2" t="s">
         <v>20</v>
@@ -7881,13 +7800,13 @@
       <c r="E61" s="11"/>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:6" ht="15.75" customHeight="1">
       <c r="A62" s="12"/>
       <c r="B62" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>84</v>
@@ -7896,22 +7815,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1">
       <c r="A63" s="12"/>
       <c r="B63" s="36" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D63" s="32" t="s">
         <v>95</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:6" ht="15.75" customHeight="1">
       <c r="A64" s="12"/>
       <c r="B64" s="2" t="s">
         <v>63</v>
@@ -7920,26 +7839,26 @@
       <c r="E64" s="11"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1">
       <c r="A65" s="35" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="11"/>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B66" s="2"/>
       <c r="D66" s="13" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E66" s="11"/>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:6" ht="15.75" customHeight="1">
       <c r="A67" s="12" t="s">
         <v>96</v>
       </c>
@@ -7954,7 +7873,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:6" ht="15.75" customHeight="1">
       <c r="A68" s="12" t="s">
         <v>97</v>
       </c>
@@ -7969,7 +7888,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:6" ht="15.75" customHeight="1">
       <c r="A69" s="16" t="s">
         <v>63</v>
       </c>
@@ -7979,17 +7898,17 @@
       <c r="E69" s="24"/>
       <c r="F69" s="25"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -7997,7 +7916,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:6" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>7</v>
       </c>
@@ -8005,7 +7924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:6" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>9</v>
       </c>
@@ -8015,7 +7934,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:6" ht="15.75" customHeight="1">
       <c r="A76" s="6" t="s">
         <v>10</v>
       </c>
@@ -8035,7 +7954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:6" ht="15.75" customHeight="1">
       <c r="A77" s="7" t="s">
         <v>20</v>
       </c>
@@ -8045,13 +7964,13 @@
       <c r="E77" s="9"/>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:6" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="13" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>84</v>
@@ -8060,7 +7979,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:6" ht="15.75" customHeight="1">
       <c r="A79" s="16" t="s">
         <v>63</v>
       </c>
@@ -8070,7 +7989,7 @@
       <c r="E79" s="18"/>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:6" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>74</v>
       </c>
@@ -8080,7 +7999,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:6" ht="15.75" customHeight="1">
       <c r="A81" s="6" t="s">
         <v>10</v>
       </c>
@@ -8100,7 +8019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:6" ht="15.75" customHeight="1">
       <c r="A82" s="7" t="s">
         <v>20</v>
       </c>
@@ -8110,7 +8029,7 @@
       <c r="E82" s="20"/>
       <c r="F82" s="21"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:6" ht="15.75" customHeight="1">
       <c r="A83" s="12" t="s">
         <v>96</v>
       </c>
@@ -8125,7 +8044,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:6" ht="15.75" customHeight="1">
       <c r="A84" s="12" t="s">
         <v>97</v>
       </c>
@@ -8140,7 +8059,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:6" ht="15.75" customHeight="1">
       <c r="A85" s="16" t="s">
         <v>63</v>
       </c>
@@ -8150,17 +8069,17 @@
       <c r="E85" s="24"/>
       <c r="F85" s="25"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>
@@ -8975,45 +8894,42 @@
     <row r="908" ht="15.75" customHeight="1"/>
     <row r="909" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F957"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="14.43"/>
+    <col min="1" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="15.75" customHeight="1"/>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -9021,7 +8937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -9031,7 +8947,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -9051,7 +8967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -9061,7 +8977,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>63</v>
       </c>
@@ -9071,7 +8987,7 @@
       <c r="E9" s="18"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -9081,7 +8997,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -9101,7 +9017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -9111,18 +9027,18 @@
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B13" s="2"/>
       <c r="D13" s="13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="2" t="s">
         <v>20</v>
@@ -9131,13 +9047,13 @@
       <c r="E14" s="11"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>84</v>
@@ -9146,26 +9062,26 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="36" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="36" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>36</v>
@@ -9174,10 +9090,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="36" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D18" s="32" t="s">
         <v>117</v>
@@ -9189,21 +9105,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="39" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="41" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E19" s="42" t="s">
         <v>84</v>
       </c>
       <c r="F19" s="43"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="2" t="s">
         <v>63</v>
@@ -9212,26 +9128,26 @@
       <c r="E20" s="11"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="35" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="11"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B22" s="2"/>
       <c r="D22" s="13" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>96</v>
       </c>
@@ -9246,7 +9162,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="12" t="s">
         <v>97</v>
       </c>
@@ -9261,7 +9177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="16" t="s">
         <v>63</v>
       </c>
@@ -9271,13 +9187,13 @@
       <c r="E25" s="24"/>
       <c r="F25" s="25"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -10204,84 +10120,81 @@
     <row r="956" ht="15.75" customHeight="1"/>
     <row r="957" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="B1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="14.43"/>
+    <col min="1" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="15.75" customHeight="1"/>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="1" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="2" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="3" spans="2:3" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B4" s="2">
+        <v>200</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B5" s="2">
+        <v>300</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B6" s="2">
+        <v>301</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B7" s="2">
+        <v>400</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B8" s="2">
+        <v>500</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="2">
-        <v>200.0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="2">
-        <v>300.0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="2">
-        <v>301.0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="2">
-        <v>400.0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="2">
-        <v>500.0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="9" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="10" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="11" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="12" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="13" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="14" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="15" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -11267,9 +11180,8 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>